--- a/Predavanje_08/data_clean/nova_tabela.xlsx
+++ b/Predavanje_08/data_clean/nova_tabela.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t xml:space="preserve">247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&amp;nbsp;</t>
   </si>
   <si>
     <t xml:space="preserve">2020-01-02</t>
@@ -619,7 +616,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -633,7 +630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -642,40 +639,40 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -684,46 +681,46 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
         <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -731,13 +728,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -751,15 +748,15 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -773,55 +770,55 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
         <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -829,16 +826,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
         <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -849,15 +846,15 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
         <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>18</v>
@@ -871,16 +868,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -891,15 +888,15 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
         <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
@@ -919,10 +916,10 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
         <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
